--- a/medicine/Pharmacie/Lactitol/Lactitol.xlsx
+++ b/medicine/Pharmacie/Lactitol/Lactitol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lactitol est un polyol très peu fréquemment utilisé comme édulcorant artificiel (E966[3]) et comme laxatif. 
+Le lactitol est un polyol très peu fréquemment utilisé comme édulcorant artificiel (E966) et comme laxatif. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Propriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son pouvoir sucrant est 0,3-0,4 fois celui du sucre à poids égal[4]. N'existant pas à l'état naturel, il ne peut être obtenu qu'à partir du lactose ("sucre de lait"). Il possède une saveur douce sans arrière-goût et s'utilise dans diverses matières alimentaires telles que les chewing-gums.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son pouvoir sucrant est 0,3-0,4 fois celui du sucre à poids égal. N'existant pas à l'état naturel, il ne peut être obtenu qu'à partir du lactose ("sucre de lait"). Il possède une saveur douce sans arrière-goût et s'utilise dans diverses matières alimentaires telles que les chewing-gums.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas de consommation quotidienne dépassant environ 15 à 20 grammes, le lactitol a un effet laxatif. Il s'agit d'un laxatif osmotique : il retient l'eau dans l'intestin, ce qui entraîne un amolissement progressif et une augmentation du volume du contenu intestinal. De plus, il stimule le péristaltisme. 
-Le lactitol n'a pas une dose journalière admissible (DJA) chiffrée ("non spécifiée"[5]) depuis 1983, car le JECFA a jugé que ce polyol ne présente pas de danger pour la santé dans un aliment dans les proportions requises.
+Le lactitol n'a pas une dose journalière admissible (DJA) chiffrée ("non spécifiée") depuis 1983, car le JECFA a jugé que ce polyol ne présente pas de danger pour la santé dans un aliment dans les proportions requises.
 </t>
         </is>
       </c>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-Le lactitol est autorisé dans l'alimentation humaine comme édulcorant dans une large gamme de produits : desserts et produits similaires, confiseries, sauces, moutarde, produits de la boulangerie et compléments alimentaires. La dose maximale d'emploi n'est pas fixée (quantum satis)[3].
-Spécialités
-Le lactitol est disponible sous diverses dénominations commerciales, mais cependant, un médecin comme un pharmacien quel que soit leur pays ainsi que la langue qu'ils parlent, reconnaîtront parfaitement cette substance sous sa dénomination commune internationale, à savoir le lactitol.
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lactitol est autorisé dans l'alimentation humaine comme édulcorant dans une large gamme de produits : desserts et produits similaires, confiseries, sauces, moutarde, produits de la boulangerie et compléments alimentaires. La dose maximale d'emploi n'est pas fixée (quantum satis).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lactitol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lactitol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spécialités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lactitol est disponible sous diverses dénominations commerciales, mais cependant, un médecin comme un pharmacien quel que soit leur pays ainsi que la langue qu'ils parlent, reconnaîtront parfaitement cette substance sous sa dénomination commune internationale, à savoir le lactitol.
 </t>
         </is>
       </c>
